--- a/Unidad5/Lexico.xlsx
+++ b/Unidad5/Lexico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1ZW05LA_RS4\Documents\ITQ\4 semestre\Lenguajes y Autómatas\lenguajes-y-automatas-1\Unidad5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C69148-D88B-4BF9-9D4C-5724A892EA00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5B70DF-E835-4D67-9439-8A53A24FCD30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12384" yWindow="1920" windowWidth="10080" windowHeight="8712" xr2:uid="{8DCC1202-C440-4572-A046-706A5352AC50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DCC1202-C440-4572-A046-706A5352AC50}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="74">
   <si>
     <t>PlusOperator</t>
   </si>
@@ -262,12 +262,15 @@
 readChar
 readFloat    and               or                      true           false</t>
   </si>
+  <si>
+    <t>Autor: Héctor Daniel Rodríguez Feregrino</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +285,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A46368-0E55-456A-B7EA-E407E9ADEB0B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,279 +679,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>